--- a/01日本語/log/接续形式.xlsx
+++ b/01日本語/log/接续形式.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接续形式" sheetId="17" r:id="rId1"/>
+    <sheet name="指示词" sheetId="18" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>名词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +166,259 @@
   <si>
     <t>ANな＋N
 AN简体形＋N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指代</t>
+  </si>
+  <si>
+    <t>こ</t>
+  </si>
+  <si>
+    <t>そ</t>
+  </si>
+  <si>
+    <t>あ</t>
+  </si>
+  <si>
+    <t>ど</t>
+  </si>
+  <si>
+    <t>事物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向/人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人/物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あれ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どれ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ここ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あそこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こちら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そちら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あちら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どちら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こっち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そっち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あっち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どっち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こいつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そいつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あいつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どいつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事物/人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连体词用法
+（+名词）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あんな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どんな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副词用法
+（+动词/形容词）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态/动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ああ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>このように</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そのように</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あのように</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どのように</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんなに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんなに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あんなに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どんなに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>名词用法
+（+助词）
+（は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +451,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -206,7 +469,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -372,13 +635,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -400,6 +674,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,37 +707,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -449,6 +720,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -733,34 +1052,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.6640625" style="10"/>
-    <col min="4" max="4" width="20.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.4140625" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="10"/>
+    <col min="1" max="3" width="8.6640625" style="7"/>
+    <col min="4" max="4" width="20.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="24.4140625" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -771,8 +1090,8 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
@@ -781,8 +1100,8 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
@@ -791,141 +1110,146 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="11"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="12" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="14"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="15" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="11"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="2:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="22" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="11"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="13"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="11"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="11"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="20" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="11"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="14"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="13" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C15:C16"/>
@@ -933,15 +1257,249 @@
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
     <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="7"/>
+    <col min="2" max="2" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.4140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="37"/>
+      <c r="C4" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="37"/>
+      <c r="C5" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="37"/>
+      <c r="C6" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="38"/>
+      <c r="C7" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="38"/>
+      <c r="C9" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="37"/>
+      <c r="C11" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="38"/>
+      <c r="C12" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>